--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C46DB5-891D-41E2-A1D2-6B32B5F7B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE6E3F-E3A1-4E9A-AF9D-FFA89421AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +409,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +422,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -433,8 +439,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -447,8 +456,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -461,8 +473,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -475,8 +490,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -489,8 +507,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -503,8 +524,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -517,8 +541,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -531,8 +558,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -545,8 +575,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -558,6 +591,9 @@
       </c>
       <c r="D11" t="s">
         <v>5</v>
+      </c>
+      <c r="E11">
+        <v>26.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE6E3F-E3A1-4E9A-AF9D-FFA89421AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73E53F-94A9-4BB6-814F-4CA6CB9F5CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>933-DATCRE-M</t>
+  </si>
+  <si>
+    <t>932-DATCRE-M</t>
   </si>
 </sst>
 </file>
@@ -396,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
@@ -596,6 +602,40 @@
         <v>26.4</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73E53F-94A9-4BB6-814F-4CA6CB9F5CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F0555-734E-4DCB-9E4B-62019A36A36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>932-DATCRE-M</t>
+  </si>
+  <si>
+    <t>Yes-Wonky photometry</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>23</v>
@@ -528,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>19.8</v>
@@ -545,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>20</v>

--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F0555-734E-4DCB-9E4B-62019A36A36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFCD992-8D9B-4867-944C-7B44CACA4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>932-DATCRE-M</t>
-  </si>
-  <si>
-    <t>Yes-Wonky photometry</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>23</v>
@@ -531,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>19.8</v>
@@ -548,7 +545,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>20</v>

--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFCD992-8D9B-4867-944C-7B44CACA4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD72AE6-1769-4E8D-AF02-B72FF733EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="1995" windowWidth="12690" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>932-DATCRE-M</t>
+  </si>
+  <si>
+    <t>885-DATCRE-M</t>
+  </si>
+  <si>
+    <t>Yes-Wonky photometry</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -545,7 +551,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -634,6 +640,23 @@
       </c>
       <c r="E13">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Figure2/Wk0KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk0KeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD72AE6-1769-4E8D-AF02-B72FF733EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC8F4E-F268-44AD-92B8-CA1209CB2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1995" windowWidth="12690" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3300" windowWidth="12690" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>20</v>
